--- a/biology/Botanique/Spergularia_segetalis/Spergularia_segetalis.xlsx
+++ b/biology/Botanique/Spergularia_segetalis/Spergularia_segetalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spergularia segetalis, de nom commun spergulaire des moissons[1], est une espèce de plante européenne de la famille des Caryophyllaceae et du genre Spergularia.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spergularia segetalis, de nom commun spergulaire des moissons, est une espèce de plante européenne de la famille des Caryophyllaceae et du genre Spergularia.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La spergulaire des moissons est une plante herbacée annuelle et atteint des hauteurs de 3 à 10 centimètres. La tige dressée et nue est ramifiée dans la partie supérieure. Les feuilles disposées de façon opposée mesurent 10 à 15 millimètres de long et seulement 0,3 à 0,8 mm de large. De petites stipules blanches sont présentes.
 Spergularia segetalis est un thérophyte.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La spergulaire des moissons est un élément de la flore subatlantique. L'aire de répartition s'étend du Maroc à l'Espagne en passant par la France vers l'Europe centrale et le nord de l'Italie. Elle est très rare à l'embouchure du Main, au sud de la Forêt-Noire, au sud de l'Alsace et en Thuringe.
 La spergulaire des moissons ne fut jamais commune en Europe centrale, mais elle a perdu la plupart de ses sites d'Europe centrale après la Seconde Guerre mondiale en raison de changements dans les méthodes de travail en agriculture (drainage, ameublissement plus important du sol).
@@ -579,7 +595,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est une plante hôte de la chenille d’Eupithecia graphata.
 </t>
